--- a/files/TOPIC_Seed.xlsx
+++ b/files/TOPIC_Seed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universität\Hochschule der Medien\Master\Repository\ml-classification-repo\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Hochschule der Medien_M.Sc. Data Science\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7EC7E-4039-4928-AEF7-F35E8EDD64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D433085-AC5C-46F2-A900-E34EB0B6902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="131">
   <si>
     <t>Autonomes Fahren</t>
   </si>
   <si>
-    <t>Elektrofahrzeug</t>
-  </si>
-  <si>
-    <t>Digitalisierung Autos</t>
-  </si>
-  <si>
-    <t>Autos Shared Mobility</t>
-  </si>
-  <si>
-    <t>Autos Geteilte Mobilität</t>
-  </si>
-  <si>
-    <t>Keyword</t>
+    <t>Auto Shared Mobility</t>
+  </si>
+  <si>
+    <t>Auto Geteilte Mobilität</t>
+  </si>
+  <si>
+    <t>Individuelle Mobilität</t>
+  </si>
+  <si>
+    <t>Individual Mobility</t>
+  </si>
+  <si>
+    <t>Umweltfreundliches Fahrzeug</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>AUTONOMOUS</t>
+  </si>
+  <si>
+    <t>ELECTRIFICATION</t>
+  </si>
+  <si>
+    <t>CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>SHARED</t>
+  </si>
+  <si>
+    <t>SUSTAINABILITY</t>
+  </si>
+  <si>
+    <t>DIGITALISATION</t>
+  </si>
+  <si>
+    <t>INDIVIDUALISATION</t>
+  </si>
+  <si>
+    <t>Nachhalitgkeit Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Sustainability Automotive</t>
+  </si>
+  <si>
+    <t>Digitalisierung Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Digitalisierung Fahrzeug</t>
+  </si>
+  <si>
+    <t>Mass Customization Automobilindustrie</t>
+  </si>
+  <si>
+    <t>E-Auto</t>
+  </si>
+  <si>
+    <t>Batterie Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Automatisches drahtloses Laden Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Vehicle with Range Extender </t>
+  </si>
+  <si>
+    <t>Elektrofahrzeug Plus</t>
+  </si>
+  <si>
+    <t>Ladestation</t>
+  </si>
+  <si>
+    <t>Elektrofahrzeug mit Brennstoffzelle</t>
+  </si>
+  <si>
+    <t>Hybridfahrzeug</t>
+  </si>
+  <si>
+    <t>Hybrid-Elektro-Mobilitätslösungen</t>
+  </si>
+  <si>
+    <t>Superschnellladesystem</t>
+  </si>
+  <si>
+    <t>Batterizellen Auto</t>
+  </si>
+  <si>
+    <t>Elektromobilität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrofahrzeug mit Range Extender </t>
+  </si>
+  <si>
+    <t>KEYWORD_DE</t>
+  </si>
+  <si>
+    <t>KEYWORD_EN</t>
+  </si>
+  <si>
+    <t>Intelligentes Fahrzeug</t>
+  </si>
+  <si>
+    <t>Vehicle-on-Demand Autonomes Fahren</t>
+  </si>
+  <si>
+    <t>Selbstfahrendes Auto</t>
+  </si>
+  <si>
+    <t>Hochautomatisiertes Fahren</t>
+  </si>
+  <si>
+    <t>Vollautomatisiertes Fahren</t>
+  </si>
+  <si>
+    <t>Level 5 Autonomes Fahren</t>
+  </si>
+  <si>
+    <t>Level 4 Autonomes Fahren</t>
+  </si>
+  <si>
+    <t>Vollautonomes Fahrzeug</t>
+  </si>
+  <si>
+    <t>Maschinelle Fähigkeiten Auto</t>
+  </si>
+  <si>
+    <t>Electrical Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrofahrzeug </t>
+  </si>
+  <si>
+    <t>E-car</t>
+  </si>
+  <si>
+    <t>Battery automotive industry</t>
+  </si>
+  <si>
+    <t>Automatic wireless charging car</t>
+  </si>
+  <si>
+    <t>Electrical Vehicle Plus</t>
+  </si>
+  <si>
+    <t>Charging station</t>
+  </si>
+  <si>
+    <t>Electric vehicle with fuel cell</t>
+  </si>
+  <si>
+    <t>Hybrid car</t>
+  </si>
+  <si>
+    <t>Hybrid-electric mobility solutions</t>
+  </si>
+  <si>
+    <t>Superfast charging system</t>
+  </si>
+  <si>
+    <t>Battery cells car</t>
+  </si>
+  <si>
+    <t>Electromobility</t>
+  </si>
+  <si>
+    <t>Connected car</t>
+  </si>
+  <si>
+    <t>Vernetztes Auto</t>
+  </si>
+  <si>
+    <t>Cloud-basiertes Auto</t>
+  </si>
+  <si>
+    <t>Telematik</t>
+  </si>
+  <si>
+    <t>Sichere Fahrzeugkommunikation</t>
+  </si>
+  <si>
+    <t>Secure Vehicle Communication</t>
+  </si>
+  <si>
+    <t>Telekommunikation</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Telematics</t>
+  </si>
+  <si>
+    <t>Auto zur Infrastruktur c2i</t>
+  </si>
+  <si>
+    <t>Verkehrsvernetzung</t>
+  </si>
+  <si>
+    <t>Transport networking</t>
+  </si>
+  <si>
+    <t>Fahrassistenzsysteme Autonomes Fahren</t>
+  </si>
+  <si>
+    <t>Mensch-Maschine-Schnittstelle Auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voraussehendes Fahren </t>
+  </si>
+  <si>
+    <t>Cloud-based car</t>
+  </si>
+  <si>
+    <t>Car to infrastructure c2i</t>
+  </si>
+  <si>
+    <t>Telemtrie Auto</t>
+  </si>
+  <si>
+    <t>Mobileye-Technik</t>
+  </si>
+  <si>
+    <t>Auto Sensorik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrzeugdaten </t>
+  </si>
+  <si>
+    <t>Vernetzung Automobilindustrie</t>
+  </si>
+  <si>
+    <t>KI Ampelsystem</t>
+  </si>
+  <si>
+    <t>Mobility as a Service</t>
+  </si>
+  <si>
+    <t>Transport as a Service</t>
+  </si>
+  <si>
+    <t>Intermodale Mobilität</t>
+  </si>
+  <si>
+    <t>Charsharing Auto</t>
+  </si>
+  <si>
+    <t>Free Floating Auto</t>
+  </si>
+  <si>
+    <t>Ride Hailing Auto</t>
+  </si>
+  <si>
+    <t>Autonomes Ride-Hailing</t>
+  </si>
+  <si>
+    <t>Mobility-Flatrate</t>
+  </si>
+  <si>
+    <t>Cart to X Vernetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobilitätsangebote </t>
+  </si>
+  <si>
+    <t>Multimodale Mobilität</t>
+  </si>
+  <si>
+    <t>Autofreies Wohnen</t>
+  </si>
+  <si>
+    <t>Betriebliches Mobilitätsmanagement</t>
+  </si>
+  <si>
+    <t>Mobilitätsmanagement Auto</t>
+  </si>
+  <si>
+    <t>Mobilitätswende</t>
+  </si>
+  <si>
+    <t>Öffentliche Individualverkehrsmittel</t>
+  </si>
+  <si>
+    <t>SAE-Level Klassifizierung der Society of Automation Engineering</t>
+  </si>
+  <si>
+    <t>Achtsame Mobilität</t>
+  </si>
+  <si>
+    <t>All-inclusive Mobility</t>
+  </si>
+  <si>
+    <t>All-inclusive Mobilität</t>
+  </si>
+  <si>
+    <t>E-Mobility</t>
+  </si>
+  <si>
+    <t>E-Mobilität</t>
+  </si>
+  <si>
+    <t>Healthy Mobility</t>
+  </si>
+  <si>
+    <t>Healthy Mobilität</t>
+  </si>
+  <si>
+    <t>Letzte Meile Concepts</t>
+  </si>
+  <si>
+    <t>Last Mile Concepts</t>
+  </si>
+  <si>
+    <t>Mobility Hubs Auto</t>
+  </si>
+  <si>
+    <t>Mobility Hubs car</t>
+  </si>
+  <si>
+    <t>Omnichanneling Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Automobilindustrie 4.0</t>
+  </si>
+  <si>
+    <t>Cloud Computing Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Digitales Auto</t>
+  </si>
+  <si>
+    <t>Software as a Service Auto</t>
+  </si>
+  <si>
+    <t>Intelligent Transportation System</t>
+  </si>
+  <si>
+    <t>Digitale Revolution Auto</t>
+  </si>
+  <si>
+    <t>Intelligentes Transportsystem</t>
+  </si>
+  <si>
+    <t>Digitale Infrastruktur Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Big Data Auto</t>
+  </si>
+  <si>
+    <t>Internet der Dinge Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Big data car</t>
+  </si>
+  <si>
+    <t>Digital Infrastructure Automotive Industry</t>
+  </si>
+  <si>
+    <t>Internet of things automotive industry</t>
+  </si>
+  <si>
+    <t>Omnichanneling Automotive industry</t>
+  </si>
+  <si>
+    <t>Hyperpersonalisierung Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Personalisierung Auto</t>
+  </si>
+  <si>
+    <t>Individualisierung Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Austattungspakete Auto</t>
+  </si>
+  <si>
+    <t>Austattungsvarianten Auto</t>
+  </si>
+  <si>
+    <t>Austattungslinien Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Sondermodellanfertigung Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Fahrerprofile Automobilindustrie</t>
+  </si>
+  <si>
+    <t>Fahrzeugkonfiguration Auto</t>
   </si>
 </sst>
 </file>
@@ -360,45 +735,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>